--- a/Documentation/Documents/Performance Improvement/Performance Improvement.xlsx
+++ b/Documentation/Documents/Performance Improvement/Performance Improvement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -129,7 +129,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +142,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -152,15 +158,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -282,17 +279,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -348,32 +334,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -395,6 +355,47 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -409,7 +410,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -419,72 +420,72 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -792,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -812,251 +813,265 @@
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="26" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="22" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:7" s="4" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="16">
         <v>0.3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="24">
+      <c r="E4" s="10"/>
+      <c r="F4" s="30">
         <v>0.3</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="13">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="16">
         <v>0.52</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <f>D6-D4</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <f>F6-F4</f>
         <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="13">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="16">
         <v>0.66</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <f>D7-D6</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="16">
         <v>1.1200000000000001</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="10">
         <f>F7-F6</f>
         <v>0.57000000000000006</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="13">
+      <c r="B8" s="8">
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="16">
         <v>0.72</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <f>D8-D7</f>
         <v>5.9999999999999942E-2</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="16">
         <v>1.2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="10">
         <f>F8-F7</f>
         <v>7.9999999999999849E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="14"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="13">
+      <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="16">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="10">
         <f>D10-D8</f>
         <v>0.40999999999999992</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="16">
         <v>1.8</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="10">
         <f>F10-F8</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="13">
+      <c r="B11" s="8">
         <v>6</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="16">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <f>D11-D10</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="16">
         <v>1.83</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="10">
         <f>F11-F10</f>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="13">
+      <c r="B12" s="8">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="16">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <f>D12-D11</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="16">
         <v>1.85</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="10">
         <f>F12-F11</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="13">
+      <c r="B14" s="8">
         <v>8</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="16">
         <v>2.0099999999999998</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <f>D14-D12</f>
         <v>0.84999999999999987</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="16">
         <f>F12+E14</f>
         <v>2.7</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="10">
         <f>F14-F12</f>
         <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:7" s="6" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29">
+        <f>SUM(E4:E14)</f>
+        <v>1.7099999999999997</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29">
+        <f>SUM(G4:G14)</f>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:7" s="6" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="8">
+      <c r="C18" s="27"/>
+      <c r="D18" s="24">
         <f>(F14-D14)/F14</f>
         <v>0.2555555555555557</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
     </row>
   </sheetData>
   <sortState ref="B2:D7">
@@ -1066,8 +1081,8 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
